--- a/1_Doc/task.xlsx
+++ b/1_Doc/task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>bug index</t>
   </si>
@@ -45,10 +45,46 @@
     <t>其实断开连接就能实现类似功能为了方便先不管了</t>
   </si>
   <si>
-    <t>×</t>
-  </si>
-  <si>
     <t>传文件只能成功第一次无法重复传给一个client</t>
+  </si>
+  <si>
+    <t>代码逻辑问题+面向字节的tcp报文使我没法区分边界，我靠给指令加上定长长度信息前缀解决。</t>
+  </si>
+  <si>
+    <t>无法创建文件夹</t>
+  </si>
+  <si>
+    <r>
+      <t>注意！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Android11+ 限制无法在根目录直接创建文件夹</t>
+    </r>
+  </si>
+  <si>
+    <t>播放音乐调用导致app崩溃</t>
+  </si>
+  <si>
+    <t>与vc++编译器类似，如果函数声明了返回值但实际没有返回的话就会崩溃</t>
+  </si>
+  <si>
+    <t>不能一边播放一边传文件要实现互斥，或者可以接收到的文件先放在临时文件夹，传输完成后再放到Music文件夹</t>
+  </si>
+  <si>
+    <t>server的连接设备列表有残留</t>
+  </si>
+  <si>
+    <t>突然没法接收到音频数据</t>
+  </si>
+  <si>
+    <t>是缓存区没来得及取走的问题，很快就发送完了，但是因为我后面改了逻辑不是一有数据就读走导致，发完之后无法触发信号了然而此时我的代码还在执行别的东西。发现关键是qmessagebox会阻塞线程。</t>
   </si>
 </sst>
 </file>
@@ -56,10 +92,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -90,38 +126,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,95 +218,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -236,25 +272,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,25 +428,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,127 +446,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,6 +463,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -445,25 +490,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -493,6 +525,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -516,67 +563,56 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -586,98 +622,98 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -691,6 +727,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1044,7 +1086,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C10" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1103,37 +1145,88 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" ht="20" customHeight="1" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" ht="36" customHeight="1" spans="1:4">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" ht="20" customHeight="1" spans="1:1">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" ht="20" customHeight="1" spans="1:1">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" ht="20" customHeight="1" spans="1:1">
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" spans="1:4">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" spans="1:4">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" spans="1:3">
       <c r="A9" s="2"/>
-    </row>
-    <row r="10" ht="20" customHeight="1" spans="1:1">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" ht="20" customHeight="1" spans="1:1">
+      <c r="B9" s="1"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" ht="20" customHeight="1" spans="1:2">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" ht="28" customHeight="1" spans="1:1">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" ht="20" customHeight="1" spans="1:1">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" ht="20" customHeight="1" spans="1:1">
-      <c r="A13" s="2"/>
+    <row r="12" ht="20" customHeight="1" spans="1:2">
+      <c r="A12" s="2">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="64" customHeight="1" spans="1:4">
+      <c r="A13" s="2">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:1">
       <c r="A14" s="2"/>
@@ -1208,11 +1301,19 @@
       <c r="A37" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="12">
     <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/1_Doc/task.xlsx
+++ b/1_Doc/task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>bug index</t>
   </si>
@@ -55,6 +55,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>注意！</t>
     </r>
     <r>
@@ -86,6 +93,9 @@
   <si>
     <t>是缓存区没来得及取走的问题，很快就发送完了，但是因为我后面改了逻辑不是一有数据就读走导致，发完之后无法触发信号了然而此时我的代码还在执行别的东西。发现关键是qmessagebox会阻塞线程。</t>
   </si>
+  <si>
+    <t>host下发指令有较大延时误差，无法同步播放</t>
+  </si>
 </sst>
 </file>
 
@@ -94,8 +104,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -112,6 +122,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -121,6 +139,74 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,82 +220,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -218,9 +228,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,7 +245,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,21 +253,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,187 +282,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,11 +476,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,17 +502,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,22 +525,25 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,9 +565,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,149 +581,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -728,9 +738,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1086,7 +1093,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1155,7 +1162,7 @@
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
@@ -1169,7 +1176,7 @@
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D7" t="s">
@@ -1183,7 +1190,7 @@
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
@@ -1192,8 +1199,7 @@
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:3">
       <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="5"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:2">
       <c r="A10" s="2">
@@ -1221,15 +1227,20 @@
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" ht="20" customHeight="1" spans="1:1">
-      <c r="A14" s="2"/>
+    <row r="14" ht="20" customHeight="1" spans="1:2">
+      <c r="A14" s="2">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:1">
       <c r="A15" s="2"/>

--- a/1_Doc/task.xlsx
+++ b/1_Doc/task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>bug index</t>
   </si>
@@ -96,16 +96,19 @@
   <si>
     <t>host下发指令有较大延时误差，无法同步播放</t>
   </si>
+  <si>
+    <t>连续发送文件时，无法分割当前接收的文件与下一条指令</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -122,16 +125,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,8 +161,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,34 +176,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,24 +239,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,145 +285,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,36 +466,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,21 +476,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -502,6 +490,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,7 +528,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,7 +537,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,21 +562,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,145 +584,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1093,7 +1096,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1242,8 +1245,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" ht="20" customHeight="1" spans="1:1">
-      <c r="A15" s="2"/>
+    <row r="15" ht="46" customHeight="1" spans="1:2">
+      <c r="A15" s="2">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:1">
       <c r="A16" s="2"/>

--- a/1_Doc/task.xlsx
+++ b/1_Doc/task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>bug index</t>
   </si>
@@ -37,12 +37,6 @@
   </si>
   <si>
     <t>√</t>
-  </si>
-  <si>
-    <t>增加一个手动断开文件传输按钮</t>
-  </si>
-  <si>
-    <t>其实断开连接就能实现类似功能为了方便先不管了</t>
   </si>
   <si>
     <t>传文件只能成功第一次无法重复传给一个client</t>
@@ -88,6 +82,9 @@
     <t>server的连接设备列表有残留</t>
   </si>
   <si>
+    <t>应该是client的析构函数没有断开连接的原因。</t>
+  </si>
+  <si>
     <t>突然没法接收到音频数据</t>
   </si>
   <si>
@@ -98,6 +95,30 @@
   </si>
   <si>
     <t>连续发送文件时，无法分割当前接收的文件与下一条指令</t>
+  </si>
+  <si>
+    <t>因为读文件直接是readAll导致第二天指令可能被当数据读走</t>
+  </si>
+  <si>
+    <t>下一条指令无法正确解析</t>
+  </si>
+  <si>
+    <t>因为定时器的原因导致俩条指令先于文件本体发出去了，而接收端把第二条指令当做了数据的一部分于是第二条指令就没法被解析了，把定时器去掉就好了（因为已经有了长度信息）</t>
+  </si>
+  <si>
+    <t>定时器timeout之后没有响应</t>
+  </si>
+  <si>
+    <t>lambda capture surrounding variables的时候如果是&amp;那么好像传的是地址，而非引用？换成=就好了。</t>
+  </si>
+  <si>
+    <t>为什么client的delayTime比server端的还要长？</t>
+  </si>
+  <si>
+    <t>Qtimer即使设置了singleshot依然被多次执行</t>
+  </si>
+  <si>
+    <t>换车了静态函数，问题解决，但是为什么设置了singleshot后依然多次执行，原因未知。</t>
   </si>
 </sst>
 </file>
@@ -105,12 +126,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +147,26 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -133,52 +174,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,6 +250,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -247,23 +273,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,19 +312,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,163 +426,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,21 +521,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -528,7 +540,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,7 +549,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,15 +571,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -576,6 +579,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -584,31 +611,31 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -617,10 +644,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,98 +662,98 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -743,6 +770,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1093,10 +1126,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1144,28 +1177,28 @@
       <c r="B4" s="3"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" ht="20" customHeight="1" spans="1:4">
+    <row r="5" ht="36" customHeight="1" spans="1:4">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" ht="36" customHeight="1" spans="1:4">
+    <row r="6" ht="20" customHeight="1" spans="1:4">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
@@ -1179,88 +1212,127 @@
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="20" customHeight="1" spans="1:4">
-      <c r="A8" s="2">
+    <row r="8" ht="20" customHeight="1" spans="1:3">
+      <c r="A8" s="2"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" ht="20" customHeight="1" spans="1:2">
+      <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1" t="s">
+    </row>
+    <row r="10" ht="28" customHeight="1" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" ht="20" customHeight="1" spans="1:4">
+      <c r="A11" s="2">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" ht="20" customHeight="1" spans="1:3">
-      <c r="A9" s="2"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" ht="20" customHeight="1" spans="1:2">
-      <c r="A10" s="2">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" ht="28" customHeight="1" spans="1:1">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" ht="20" customHeight="1" spans="1:2">
+    <row r="12" ht="64" customHeight="1" spans="1:4">
       <c r="A12" s="2">
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" ht="64" customHeight="1" spans="1:4">
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1" spans="1:2">
       <c r="A13" s="2">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" ht="20" customHeight="1" spans="1:2">
+    </row>
+    <row r="14" ht="46" customHeight="1" spans="1:4">
       <c r="A14" s="2">
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" ht="46" customHeight="1" spans="1:2">
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" ht="65" customHeight="1" spans="1:4">
       <c r="A15" s="2">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" ht="20" customHeight="1" spans="1:1">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" ht="20" customHeight="1" spans="1:1">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" ht="20" customHeight="1" spans="1:1">
-      <c r="A18" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" ht="39" customHeight="1" spans="1:4">
+      <c r="A16" s="2">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1" spans="1:2">
+      <c r="A17" s="2">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" ht="34" customHeight="1" spans="1:4">
+      <c r="A18" s="2">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:1">
       <c r="A19" s="2"/>
@@ -1312,27 +1384,21 @@
     </row>
     <row r="35" ht="20" customHeight="1" spans="1:1">
       <c r="A35" s="2"/>
-    </row>
-    <row r="36" ht="20" customHeight="1" spans="1:1">
-      <c r="A36" s="2"/>
-    </row>
-    <row r="37" ht="20" customHeight="1" spans="1:1">
-      <c r="A37" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/1_Doc/task.xlsx
+++ b/1_Doc/task.xlsx
@@ -1129,7 +1129,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>

--- a/1_Doc/task.xlsx
+++ b/1_Doc/task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>bug index</t>
   </si>
@@ -120,6 +120,12 @@
   <si>
     <t>换车了静态函数，问题解决，但是为什么设置了singleshot后依然多次执行，原因未知。</t>
   </si>
+  <si>
+    <t>Listwidget调用removeitem没有作用</t>
+  </si>
+  <si>
+    <t>有纪律手机无法设置声道但是server现实已经发出指令</t>
+  </si>
 </sst>
 </file>
 
@@ -152,6 +158,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -160,28 +167,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,22 +219,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,14 +256,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -250,14 +265,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -275,22 +282,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,187 +318,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,6 +509,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -521,6 +538,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -532,6 +558,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,41 +609,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -611,10 +617,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -623,137 +629,137 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -771,9 +777,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1129,7 +1132,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1305,7 +1308,7 @@
       <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
@@ -1327,18 +1330,28 @@
       <c r="B18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" ht="20" customHeight="1" spans="1:1">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" ht="20" customHeight="1" spans="1:1">
-      <c r="A20" s="2"/>
+    <row r="19" ht="20" customHeight="1" spans="1:2">
+      <c r="A19" s="2">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" ht="36" customHeight="1" spans="1:2">
+      <c r="A20" s="2">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:1">
       <c r="A21" s="2"/>

--- a/1_Doc/task.xlsx
+++ b/1_Doc/task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>bug index</t>
   </si>
@@ -124,7 +124,25 @@
     <t>Listwidget调用removeitem没有作用</t>
   </si>
   <si>
-    <t>有纪律手机无法设置声道但是server现实已经发出指令</t>
+    <t>用takeitem就好了</t>
+  </si>
+  <si>
+    <t>在某种情况下server的播放与暂停与client刚好是相反的。</t>
+  </si>
+  <si>
+    <t>实在按上一曲的之后会操作导致相反，如果按发送重播指令正常</t>
+  </si>
+  <si>
+    <t>server端拖动进度条会被弹回去而client端已经拖动成功</t>
+  </si>
+  <si>
+    <t>server端延时的问题，把延时放在relase的槽函数那就没问题了</t>
+  </si>
+  <si>
+    <t>由于延时的存在导致server端的进度条与client端根部无法同步，server端在拖动进度条的时候触发了无数次槽函数也就发送了无数次INS，但是client端由于延时的存在根本处理不过来，甚至可能会引发异常。</t>
+  </si>
+  <si>
+    <t>有easy一点的解决办法，将slider的setTracking设为false就只会在释放滑块时触发信号，现在用的这个乞丐办法。</t>
   </si>
 </sst>
 </file>
@@ -158,93 +176,84 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -256,6 +265,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -265,10 +282,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -288,8 +305,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,31 +336,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,7 +450,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,133 +510,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,17 +527,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -562,21 +569,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -595,6 +587,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -609,6 +616,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -617,10 +635,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -629,137 +647,137 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -780,6 +798,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1131,8 +1152,8 @@
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1337,27 +1358,58 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" ht="20" customHeight="1" spans="1:2">
+    <row r="19" ht="20" customHeight="1" spans="1:4">
       <c r="A19" s="2">
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" ht="36" customHeight="1" spans="1:2">
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" ht="36" customHeight="1" spans="1:3">
       <c r="A20" s="2">
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" ht="20" customHeight="1" spans="1:1">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" ht="20" customHeight="1" spans="1:1">
-      <c r="A22" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" ht="40" customHeight="1" spans="1:4">
+      <c r="A21" s="2">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" ht="83" customHeight="1" spans="1:4">
+      <c r="A22" s="2">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:1">
       <c r="A23" s="2"/>

--- a/1_Doc/task.xlsx
+++ b/1_Doc/task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>bug index</t>
   </si>
@@ -130,7 +130,7 @@
     <t>在某种情况下server的播放与暂停与client刚好是相反的。</t>
   </si>
   <si>
-    <t>实在按上一曲的之后会操作导致相反，如果按发送重播指令正常</t>
+    <t>实在按上一曲的之后会操作导致相反，如果按发送重播指令正常，通过将上一曲的指令改为setsource+playback直接播放而不是replay后问题解决，我觉得可能是player setSource之后本来就没再播放状态，此时调用stop可能会出问题。</t>
   </si>
   <si>
     <t>server端拖动进度条会被弹回去而client端已经拖动成功</t>
@@ -1152,8 +1152,8 @@
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1372,7 +1372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" ht="36" customHeight="1" spans="1:3">
+    <row r="20" ht="82" customHeight="1" spans="1:4">
       <c r="A20" s="2">
         <v>15</v>
       </c>
@@ -1381,6 +1381,9 @@
       </c>
       <c r="C20" s="7" t="s">
         <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="21" ht="40" customHeight="1" spans="1:4">

--- a/1_Doc/task.xlsx
+++ b/1_Doc/task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>bug index</t>
   </si>
@@ -130,7 +130,7 @@
     <t>在某种情况下server的播放与暂停与client刚好是相反的。</t>
   </si>
   <si>
-    <t>实在按上一曲的之后会操作导致相反，如果按发送重播指令正常，通过将上一曲的指令改为setsource+playback直接播放而不是replay后问题解决，我觉得可能是player setSource之后本来就没再播放状态，此时调用stop可能会出问题。</t>
+    <t>实在按上一曲的之后会操作导致相反，如果按发送重播指令正常，通过将上一曲的指令改为setsource+playback直接播放而不是replay后问题解决，我觉得可能是player setSource之后本来就没再播放状态，此时调用stop可能会出问题。不对，根本原因不在这，应该还是指令堆积在了缓冲里没来得及取出来。。。。</t>
   </si>
   <si>
     <t>server端拖动进度条会被弹回去而client端已经拖动成功</t>
@@ -1152,8 +1152,8 @@
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1372,7 +1372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" ht="82" customHeight="1" spans="1:4">
+    <row r="20" ht="123" customHeight="1" spans="1:3">
       <c r="A20" s="2">
         <v>15</v>
       </c>
@@ -1381,9 +1381,6 @@
       </c>
       <c r="C20" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="21" ht="40" customHeight="1" spans="1:4">

--- a/1_Doc/task.xlsx
+++ b/1_Doc/task.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30048" windowHeight="13620"/>
+    <workbookView windowWidth="16608" windowHeight="27060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>bug index</t>
   </si>
@@ -112,9 +112,6 @@
     <t>lambda capture surrounding variables的时候如果是&amp;那么好像传的是地址，而非引用？换成=就好了。</t>
   </si>
   <si>
-    <t>为什么client的delayTime比server端的还要长？</t>
-  </si>
-  <si>
     <t>Qtimer即使设置了singleshot依然被多次执行</t>
   </si>
   <si>
@@ -143,6 +140,18 @@
   </si>
   <si>
     <t>有easy一点的解决办法，将slider的setTracking设为false就只会在释放滑块时触发信号，现在用的这个乞丐办法。</t>
+  </si>
+  <si>
+    <t>两台设备发送延时是相同的。。这个不对</t>
+  </si>
+  <si>
+    <t>指令时间戳与延时的生成应该放在发送指令的时候，不然就是一样的时间</t>
+  </si>
+  <si>
+    <t>分配5.1立体声的右方声道会崩溃</t>
+  </si>
+  <si>
+    <t>数组越界了，m_lastId只开到了6也就是目前设置的最大id数，但声道是有8个的，所以这里应与声道数保持一致</t>
   </si>
 </sst>
 </file>
@@ -1150,10 +1159,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1336,83 +1345,98 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" ht="20" customHeight="1" spans="1:2">
+    <row r="17" ht="34" customHeight="1" spans="1:4">
       <c r="A17" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" ht="34" customHeight="1" spans="1:4">
+      <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1" spans="1:4">
       <c r="A18" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" ht="20" customHeight="1" spans="1:4">
+    <row r="19" ht="123" customHeight="1" spans="1:3">
       <c r="A19" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
         <v>29</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C19" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" ht="40" customHeight="1" spans="1:4">
+      <c r="A20" s="2">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" ht="123" customHeight="1" spans="1:3">
-      <c r="A20" s="2">
-        <v>15</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" ht="40" customHeight="1" spans="1:4">
+    <row r="21" ht="83" customHeight="1" spans="1:4">
       <c r="A21" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" ht="83" customHeight="1" spans="1:4">
+    <row r="22" ht="59" customHeight="1" spans="1:4">
       <c r="A22" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" ht="20" customHeight="1" spans="1:1">
+    <row r="23" ht="43" customHeight="1" spans="1:4">
       <c r="A23" s="2"/>
+      <c r="B23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:1">
       <c r="A24" s="2"/>
@@ -1446,9 +1470,6 @@
     </row>
     <row r="34" ht="20" customHeight="1" spans="1:1">
       <c r="A34" s="2"/>
-    </row>
-    <row r="35" ht="20" customHeight="1" spans="1:1">
-      <c r="A35" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="12">
